--- a/server/resource/excel/ExcelImport.xlsx
+++ b/server/resource/excel/ExcelImport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2E71E-CEDE-4383-8B66-A95FE11F0809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4845AB-ECE6-442D-9D09-DA6DBC086C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="3300" windowWidth="21600" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,39 +15,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>路由Name</t>
-  </si>
-  <si>
-    <t>路由Path</t>
-  </si>
-  <si>
-    <t>是否隐藏</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>文件名称</t>
-  </si>
-  <si>
-    <t>https://www.gin-vue-admin.com</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>排序</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂附地黄丸（浓缩丸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州佛慈制药股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江瑞新药业股份有限公司</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>薄芝片</t>
+    </r>
+  </si>
+  <si>
+    <t>0.16g*60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +88,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -93,15 +132,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,94 +417,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://www.xasxlyy.com/goods?id=38554" xr:uid="{ECA24B87-B2F9-4C53-84F3-56936BCB71A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/resource/excel/ExcelImport.xlsx
+++ b/server/resource/excel/ExcelImport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2E71E-CEDE-4383-8B66-A95FE11F0809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA545E5-07C4-4895-9C07-CA16CF0FAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20025" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,9 @@
     <t>父节点</t>
   </si>
   <si>
+    <t>排序</t>
+  </si>
+  <si>
     <t>文件名称</t>
   </si>
   <si>
@@ -42,20 +45,13 @@
   </si>
   <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +60,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -96,9 +85,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,12 +365,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,67 +386,67 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/resource/excel/ExcelImport.xlsx
+++ b/server/resource/excel/ExcelImport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA545E5-07C4-4895-9C07-CA16CF0FAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B4DEA-7031-4E7C-9AA6-DB519C406696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20025" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2004" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,12 +365,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>26</v>
       </c>
@@ -416,37 +416,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
